--- a/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C619F941-AF8D-499B-82F5-E6EFEFE7B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FBD9C6-EA4B-469E-A844-62E5105479B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB82463F-41F2-4746-9D69-39930B4E8AD9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E12915ED-9AA8-4384-BD75-6227432EC94B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>57,97%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>42,03%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,169 +137,169 @@
     <t>77,39%</t>
   </si>
   <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>78,15%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>21,85%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>79,36%</t>
   </si>
   <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>24,3%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D4FCD9-1297-46FF-B66D-CEDBAD2D75D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBB12C-5EE3-4991-ADFE-E3BDB5CC4AD9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1721,7 +1721,7 @@
         <v>1344</v>
       </c>
       <c r="D19" s="7">
-        <v>1300176</v>
+        <v>1300175</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1823,7 +1823,7 @@
         <v>1763</v>
       </c>
       <c r="D21" s="7">
-        <v>1717488</v>
+        <v>1717487</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FBD9C6-EA4B-469E-A844-62E5105479B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{347EE9FE-4CB2-48B8-9EF2-C21467A75AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E12915ED-9AA8-4384-BD75-6227432EC94B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5ABC563-514C-45F3-8786-50B125CBD3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>77,39%</t>
@@ -188,7 +188,7 @@
     <t>24,56%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>73,39%</t>
@@ -245,7 +245,7 @@
     <t>27,48%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>74,63%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBB12C-5EE3-4991-ADFE-E3BDB5CC4AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EC20DC-952F-481C-AAA4-E8D79AFC424B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
